--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -118,10 +118,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
@@ -1299,25 +1299,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.7665198237885462</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L23">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1325,25 +1325,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="N24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1533,25 +1533,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.6299694189602446</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L32">
         <v>206</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="10:17">
